--- a/Basha/Testdata/exceldata.xlsx
+++ b/Basha/Testdata/exceldata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace-new\Basha\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186B739C-86ED-4927-B62D-5851FB6D8A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFD10E4-CC4D-43AD-A676-AE9A821C29CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>noorbasha2552@gmail.com</t>
   </si>
   <si>
     <t>noori100</t>
-  </si>
-  <si>
-    <t>noor1234</t>
-  </si>
-  <si>
-    <t>noorbasha2553@gmail.com</t>
-  </si>
-  <si>
-    <t>noorbasha2554@gmail.com</t>
-  </si>
-  <si>
-    <t>noorbasha2555@gmail.com</t>
-  </si>
-  <si>
-    <t>noor1134</t>
-  </si>
-  <si>
-    <t>noor4321</t>
-  </si>
-  <si>
-    <t>_</t>
   </si>
 </sst>
 </file>
@@ -380,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,43 +379,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{7D6EBD0A-F021-4986-ABE3-A057BCCF9726}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{8D303EC7-F5DF-43DB-84C0-6D139D65E7FA}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{551A5B81-3E40-4D52-8786-31838CF6CB4A}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{C42FFF20-FAA4-4C4C-AF05-3D651EAF0946}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
